--- a/src/excel/CarrosForm.xlsx
+++ b/src/excel/CarrosForm.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rolando\Desktop\SpringBoot-Crud-Cars-main\src\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D28766-4AC0-4AAB-AF1B-3517211F7B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo de combustible</t>
+  </si>
+  <si>
+    <t>Número de chasis</t>
+  </si>
+  <si>
+    <t>Número de placa</t>
+  </si>
+  <si>
+    <t>Tipo de vehículo</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Tucson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción </t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>A102122</t>
+  </si>
+  <si>
+    <t>D412342</t>
+  </si>
+  <si>
+    <t>Jeep</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +392,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/excel/CarrosForm.xlsx
+++ b/src/excel/CarrosForm.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rolando\Desktop\SpringBoot-Crud-Cars-main\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D28766-4AC0-4AAB-AF1B-3517211F7B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC73875-EBD3-4F17-B780-76FF52DD52C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="1455" windowWidth="16740" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,48 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
   <si>
-    <t>Marca</t>
+    <t>a</t>
   </si>
   <si>
-    <t>Modelo</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo de combustible</t>
-  </si>
-  <si>
-    <t>Número de chasis</t>
-  </si>
-  <si>
-    <t>Número de placa</t>
-  </si>
-  <si>
-    <t>Tipo de vehículo</t>
-  </si>
-  <si>
-    <t>Hyundai</t>
-  </si>
-  <si>
-    <t>Tucson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción </t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>A102122</t>
-  </si>
-  <si>
-    <t>D412342</t>
-  </si>
-  <si>
-    <t>Jeep</t>
+    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -393,15 +357,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,45 +373,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G11" s="1"/>
     </row>
   </sheetData>

--- a/src/excel/CarrosForm.xlsx
+++ b/src/excel/CarrosForm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rolando\Desktop\SpringBoot-Crud-Cars-main\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC73875-EBD3-4F17-B780-76FF52DD52C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13626C43-AE8E-400C-B97C-709E6E8E4801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="1455" windowWidth="16740" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>a</t>
   </si>
   <si>
     <t>aa</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -360,7 +369,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,25 +399,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
